--- a/All Results_2.xlsx
+++ b/All Results_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benjamin\Desktop\OMSCS\Deep Learning\LSTM-Options-Pricing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D6834E5-AF3F-4861-855B-6DAD94E42454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2312DD-BF7D-4996-9983-AD85738B4633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="1050" windowWidth="16440" windowHeight="29040" activeTab="1" xr2:uid="{CE7088DA-1CD5-4373-91F6-FCAB0F5370D1}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{CE7088DA-1CD5-4373-91F6-FCAB0F5370D1}"/>
   </bookViews>
   <sheets>
     <sheet name="AllResults" sheetId="1" r:id="rId1"/>
@@ -3029,11 +3029,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E0D0D0E-A765-4F2C-8B86-45F1A0AB77E9}">
   <dimension ref="A1:O133"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F96" sqref="F96"/>
+      <selection pane="bottomRight" activeCell="H102" sqref="H102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7778,8 +7778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{610D7319-BBBB-40BF-8FC5-BC19A4003AE4}">
   <dimension ref="A3:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G68" sqref="G68"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7793,7 +7793,7 @@
     <col min="7" max="7" width="12.46484375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.73046875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.53125" customWidth="1"/>
     <col min="11" max="11" width="6.46484375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.9296875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.3984375" bestFit="1" customWidth="1"/>
